--- a/frequency_analysis_project/static/frequency_analysis.xlsx
+++ b/frequency_analysis_project/static/frequency_analysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,67 +450,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>система</t>
+          <t>пользоваться</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ии</t>
+          <t>карта</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>помогают</t>
+          <t>полгод</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>предотвращать</t>
+          <t>нравиться</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>банк</t>
+          <t>кэшбэк</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>улучшение</t>
+          <t>хороший</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>перевод</t>
+          <t>процент</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>счет</t>
+          <t>возвращаться</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -530,17 +530,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>делать</t>
+          <t>покупка</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>условие</t>
+          <t>супермаркет</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -550,31 +550,2381 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>позволять</t>
+          <t>единственный</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>современный</t>
+          <t>минус</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>банковский</t>
+          <t>высокий</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>комиссия</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>снятие</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>наличный</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>целое</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>удобный</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>хотеться</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>бонус</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>студент</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>очень</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>доволен</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>картой</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>бесплатное</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>возможность</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>пополнять</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>комиссии</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>скидки</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>некоторых</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>магазинах</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>отличное</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>решение</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>молодых</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>людей</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>сожаление</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>разочаровать</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>работа</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>банк</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ставка</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ипотека</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>оказаться</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>высоко</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>обещать</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>телефон</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>документ</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>оформлять</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>долго</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>приходиться</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ходить</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>офис</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>надеяться</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>будущее</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>стать</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>клиентоориентированный</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>вклад</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>устраивать</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>процентный</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>неплохой</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>беспокоиться</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>сохранность</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>свой</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>средства</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>пополнить</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>онлайн</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>современный</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>план</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>отлично</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>операции</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>сделать</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>приложении</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>переводы</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>платежи</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>управление</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>счетами</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>интерфейс</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>понятный</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>работает</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>быстро</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>никаких</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>проблем</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>рекомендую</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>всем</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>неплохая</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>нравится</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>границей</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>приходится</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>платить</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>комиссию</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>наличных</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>бывают</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>технические</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>сбои</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>целом</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>средняя</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>довольный</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>бесплатный</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>стильный</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>дизайн</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>получить</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>скидка</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>кинотеатр</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>отличный</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ценить</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>стиль</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>удобство</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>немного</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>конкурент</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>зато</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>менеджер</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>внимательный</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>помочь</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>разобраться</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>весь</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>нормальный</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>нюанс</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>жаль</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>минимальный</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>сумма</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>открытие</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>достаточно</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>большой</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>человек</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>небольшой</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>капитал</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>возможно</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>подойти</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>удобное</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>бывает</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>интернетбанк</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>возникают</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>проблемы</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>авторизацией</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>хорошее</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>приложение</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>несколько</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>год</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>получать</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>который</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>тратить</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>любимый</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>магазин</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>также</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>граница</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>получение</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>зарплата</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>оплачивать</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>услуга</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>товар</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>предлагать</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>cashback</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>выбор</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>семья</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ребенок</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>снизить</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>условие</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>довольно</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>жесткий</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>долгосрочный</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>накопление</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>стабильный</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>рекоменуть</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>работой</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>сервиса</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>достойное</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>расти</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>бонусной</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>балл</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>сложный</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>бывать</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>проблема</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>зачисление</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>счет</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>комфорт</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>компания</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>выгодный</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>квартира</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>новостройка</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>сбережения</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>работать</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>авторизация</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>недостаток</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>повседневный</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>никакой</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>средний</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>молодой</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>пенсионер</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>деньги</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>информативный</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>найти</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>необходимый</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>информация</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>путешествие</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>зарубежный</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>вариант</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>отложить</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>первый</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>взнос</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>закрыта</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>кредитная</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>дней</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>пишет</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>легко</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>интуитивно</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>дебетовой</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>студенческий</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>счастливый</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>мобильный</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>доходный</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>smart</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>накопительный</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>сберегательный</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>простой</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>пенсионный</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>кредитный</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>прекрасный</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>страховка</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>кража</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>мочь</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>нарадоваться</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>излишество</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>мечта</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>идеальный</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>путешествовать</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>бизнескласса</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>smartbank</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ожидать</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>оформление</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>лояльный</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>снять</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>mobilebank</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>mastercard</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>visa</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>вполне</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>адекватный</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>bankapp</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>maestro</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,31 +2961,3481 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ии помогают</t>
+          <t>пользоваться карта</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>помогают предотвращать</t>
+          <t>карта уже</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>банковский система</t>
+          <t>я нравиться</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>за покупка</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>покупка в</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>единственный минус</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>комиссия за</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>за снятие</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>снятие наличный</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>в целое</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>удобный но</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>но хотеться</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>хотеться бы</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>очень доволен</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>и даже</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>решение для</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ставка по</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>по ипотека</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ипотека оказаться</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>процентный ставка</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>и я</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>я не</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>не беспокоиться</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>беспокоиться за</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>за сохранность</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>сохранность свой</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>свой средства</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>нет возможность</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>возможность пополнить</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>пополнить вклад</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>вклад онлайн</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>онлайн хотеться</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>бы чтобы</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>чтобы банк</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>банк быть</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>быть более</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>более современный</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>современный в</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>в этот</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>этот план</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>все операции</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>в приложении</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>работает быстро</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>не очень</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>иногда бывают</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>в целом</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>очень довольный</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>этот карта</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>карта бесплатный</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>бесплатный обслуживание</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>стильный дизайн</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>дизайн и</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>кто ценить</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>оказаться немного</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>немного высокий</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>высокий чем</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>чем у</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>но зато</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>целое нормальный</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>нормальный ипотека</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ипотека но</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>но быть</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>быть нюанс</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>хороший вклад</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>вклад процентный</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ставка высокий</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>у другой</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>другой банк</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>банк но</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>но жаль</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>жаль что</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>приложении удобное</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>удобное работает</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>быстро но</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>но иногда</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>проблемы с</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>быть возможность</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>возможность получать</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>получать бонус</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>за граница</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>удобный карта</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>карта для</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>для получение</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>получение зарплата</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>зарплата быть</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>возможность оплачивать</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>оплачивать услуга</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>услуга и</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>и товар</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>товар онлайн</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>онлайн но</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>банк предлагать</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>предлагать больше</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>больше возможность</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>возможность для</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>для cashback</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>хороший выбор</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>выбор для</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>для семья</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>семья с</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>с ребенок</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ребенок быть</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>возможность снизить</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>снизить процентный</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ставка если</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>если у</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>у вы</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>вы быть</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>быть ребенок</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ребенок но</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>но условие</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>условие получение</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>получение ипотека</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ипотека довольно</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>довольно жесткий</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>отличный вклад</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>вклад для</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>для долгосрочный</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>долгосрочный накопление</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>накопление процентный</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ставка стабильный</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>стабильный и</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>средства рекоменуть</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>рекоменуть все</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>бывают проблемы</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>с работой</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>работой сервиса</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>сервиса в</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>целом достойное</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>достойное приложение</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>приложение но</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>но есть</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>есть куда</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>куда расти</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>получение бонусной</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>бонусной балл</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>балл но</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>но они</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>они сложный</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>сложный тратить</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>тратить иногда</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>иногда бывать</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>бывать проблема</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>проблема с</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>с зачисление</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>зачисление бонус</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>бонус на</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>на счет</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>счет в</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>нормальный карта</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>карта но</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>отличный карта</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>карта быть</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>получать cashback</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>cashback стильный</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>даже бесплатный</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>обслуживание рекоменуть</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>все кто</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ценить удобство</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>удобство и</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>и комфорт</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>оказаться высокий</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>но компания</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>компания предлагать</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>предлагать выгодный</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>выгодный условие</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>условие для</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>для покупка</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>покупка квартира</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>квартира в</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>в новостройка</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>новостройка в</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>для сбережения</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>сбережения процентный</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>приложение удобный</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>удобный работать</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>работать быстро</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>с авторизация</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>авторизация в</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>целое хороший</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>хороший приложение</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>быть небольшой</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>небольшой недостаток</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>неплохой карта</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>для повседневный</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>повседневный покупка</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>покупка но</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>но нет</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>нет никакой</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>никакой бонус</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>бонус и</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>и комиссия</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>наличный достаточно</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>достаточно высокий</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>высокий в</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>целое средний</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>средний карта</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>для молодой</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>молодой семья</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>семья быть</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ставка но</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>для пенсионер</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>пенсионер процентный</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>банк и</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>и удобный</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>удобный условие</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>для снятие</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>снятие деньги</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>но не</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>очень информативный</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>информативный не</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>не всегда</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>всегда можно</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>можно найти</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>найти необходимый</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>необходимый информация</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>информация в</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>нормальный приложение</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>быть недостаток</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>для путешествие</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>путешествие быть</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>бонус за</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>в зарубежный</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>зарубежный магазин</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>магазин но</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>но комиссия</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>наличный за</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>граница довольно</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>довольно высокий</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>хороший вариант</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>вариант для</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>для студент</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>студент быть</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>возможность отложить</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>отложить первый</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>первый взнос</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>взнос но</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>но процентный</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ставка немного</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>кредитная карта</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ипотека счастливый</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>вклад стабильный</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>план мобильный</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>мобильный приложение</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>карта без</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ипотека мой</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>нюанс вклад</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>вклад доходный</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>cashback ипотека</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>приложение smart</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>жесткий вклад</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>вклад накопительный</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>все мобильный</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>расти кредитная</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>нюанс дебетовой</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>комфорт ипотека</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ипотека новостройка</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>вклад сберегательный</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>деньги мобильный</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>вклад пенсионный</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ипотека молодой</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>карта дебетовой</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>недостаток кредитный</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>кредитный карта</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>прекрасный карта</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>карта стильный</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>дизайн возможность</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>бонус а</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>а еще</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>еще быть</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>быть страховка</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>страховка от</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>от кража</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>кража не</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>не мочь</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>мочь нарадоваться</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>нарадоваться дебетовой</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>карта silver</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>банк вклад</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ипотека студенческий</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>высокий дебетовой</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>простой карта</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>без излишество</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>излишество но</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>бонус в</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>покупка ипотека</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>мой мечта</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>идеальный карта</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>обслуживание высокий</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>высокий cashback</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>cashback а</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>еще возможность</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>возможность путешествовать</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>путешествовать в</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>в бизнескласса</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>бизнескласса я</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>я очень</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>довольный дебетовой</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>карта basic</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>с интернетбанк</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>интернетбанк в</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>нюанс кредитный</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>карта platinum</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>что нет</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>приложение smartbank</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>чем я</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>я ожидать</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ожидать но</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>зато условие</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>условие оформление</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>оформление очень</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>очень лояльный</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>лояльный довольный</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>довольный вклад</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>карта travel</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>возможность снять</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>снять деньги</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>деньги онлайн</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>приложение mobilebank</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>карта mastercard</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>mastercard gold</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>карта visa</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>visa gold</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>хороший ипотека</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ипотека процентный</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ставка вполне</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>вполне адекватный</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>адекватный но</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>оформление достаточно</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>достаточно сложный</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>сложный в</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>целое рекоменуть</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>рекоменуть вклад</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>обслуживание но</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>очень большой</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>большой cashback</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>cashback в</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>хороший карта</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>счастливый семья</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>карта maestro</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>visa classic</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>приложение simple</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>visa infinite</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>приложение bank</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>mastercard platinum</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>visa platinum</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>карта gold</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +6449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,11 +6472,3871 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ии помогают предотвращать</t>
+          <t>за покупка в</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>комиссия за снятие</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>за снятие наличный</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>но хотеться бы</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ставка по ипотека</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>по ипотека оказаться</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>и я не</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>я не беспокоиться</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>не беспокоиться за</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>беспокоиться за сохранность</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>за сохранность свой</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>сохранность свой средства</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>нет возможность пополнить</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>возможность пополнить вклад</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>пополнить вклад онлайн</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>вклад онлайн хотеться</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>онлайн хотеться бы</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>хотеться бы чтобы</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>бы чтобы банк</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>чтобы банк быть</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>банк быть более</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>быть более современный</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>более современный в</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>современный в этот</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>в этот план</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>карта бесплатный обслуживание</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>стильный дизайн и</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>дизайн и даже</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>процентный ставка по</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ипотека оказаться немного</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>оказаться немного высокий</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>немного высокий чем</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>высокий чем у</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>в целое нормальный</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>целое нормальный ипотека</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>нормальный ипотека но</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ипотека но быть</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>но быть нюанс</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>хороший вклад процентный</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>вклад процентный ставка</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>процентный ставка высокий</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ставка высокий чем</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>чем у другой</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>у другой банк</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>другой банк но</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>банк но жаль</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>но жаль что</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>приложении удобное работает</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>удобное работает быстро</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>работает быстро но</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>быстро но иногда</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>быть возможность получать</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>возможность получать бонус</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>удобный карта для</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>карта для получение</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>для получение зарплата</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>получение зарплата быть</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>зарплата быть возможность</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>быть возможность оплачивать</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>возможность оплачивать услуга</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>оплачивать услуга и</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>услуга и товар</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>и товар онлайн</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>товар онлайн но</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>онлайн но хотеться</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>чтобы банк предлагать</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>банк предлагать больше</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>предлагать больше возможность</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>больше возможность для</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>возможность для cashback</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>хороший выбор для</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>выбор для семья</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>для семья с</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>семья с ребенок</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>с ребенок быть</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ребенок быть возможность</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>быть возможность снизить</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>возможность снизить процентный</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>снизить процентный ставка</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>процентный ставка если</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ставка если у</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>если у вы</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>у вы быть</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>вы быть ребенок</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>быть ребенок но</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ребенок но условие</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>но условие получение</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>условие получение ипотека</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>получение ипотека довольно</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ипотека довольно жесткий</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>отличный вклад для</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>вклад для долгосрочный</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>для долгосрочный накопление</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>долгосрочный накопление процентный</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>накопление процентный ставка</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>процентный ставка стабильный</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ставка стабильный и</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>стабильный и я</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>свой средства рекоменуть</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>средства рекоменуть все</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>но иногда бывают</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>иногда бывают проблемы</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>бывают проблемы с</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>проблемы с работой</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>с работой сервиса</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>работой сервиса в</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>сервиса в целом</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>в целом достойное</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>целом достойное приложение</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>достойное приложение но</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>приложение но есть</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>но есть куда</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>есть куда расти</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>для получение бонусной</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>получение бонусной балл</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>бонусной балл но</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>балл но они</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>но они сложный</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>они сложный тратить</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>сложный тратить иногда</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>тратить иногда бывать</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>иногда бывать проблема</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>бывать проблема с</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>проблема с зачисление</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>с зачисление бонус</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>зачисление бонус на</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>бонус на счет</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>на счет в</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>счет в целое</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>целое нормальный карта</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>нормальный карта но</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>карта но быть</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>отличный карта быть</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>карта быть возможность</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>возможность получать cashback</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>получать cashback стильный</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>cashback стильный дизайн</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>и даже бесплатный</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>даже бесплатный обслуживание</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>бесплатный обслуживание рекоменуть</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>обслуживание рекоменуть все</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>рекоменуть все кто</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>все кто ценить</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>кто ценить удобство</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ценить удобство и</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>удобство и комфорт</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ипотека оказаться высокий</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>оказаться высокий чем</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>банк но компания</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>но компания предлагать</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>компания предлагать выгодный</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>предлагать выгодный условие</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>выгодный условие для</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>условие для покупка</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>для покупка квартира</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>покупка квартира в</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>квартира в новостройка</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>в новостройка в</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>новостройка в целое</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>вклад для сбережения</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>для сбережения процентный</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>сбережения процентный ставка</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>приложение удобный работать</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>удобный работать быстро</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>работать быстро но</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>но иногда бывать</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>проблема с авторизация</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>с авторизация в</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>авторизация в целое</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>в целое хороший</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>целое хороший приложение</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>хороший приложение но</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>приложение но быть</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>но быть небольшой</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>быть небольшой недостаток</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>неплохой карта для</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>карта для повседневный</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>для повседневный покупка</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>повседневный покупка но</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>покупка но нет</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>но нет никакой</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>нет никакой бонус</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>никакой бонус и</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>бонус и комиссия</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>и комиссия за</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>снятие наличный достаточно</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>наличный достаточно высокий</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>достаточно высокий в</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>высокий в целое</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>в целое средний</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>целое средний карта</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>выбор для молодой</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>для молодой семья</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>молодой семья быть</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>семья быть возможность</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>процентный ставка но</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ставка но условие</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>вклад для пенсионер</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>для пенсионер процентный</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>пенсионер процентный ставка</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>другой банк и</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>банк и удобный</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>и удобный условие</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>удобный условие для</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>условие для снятие</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>для снятие деньги</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>приложение удобный но</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>удобный но не</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>но не очень</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>не очень информативный</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>очень информативный не</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>информативный не всегда</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>не всегда можно</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>всегда можно найти</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>можно найти необходимый</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>найти необходимый информация</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>необходимый информация в</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>информация в целое</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>целое нормальный приложение</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>нормальный приложение но</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>но быть недостаток</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>карта для путешествие</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>для путешествие быть</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>путешествие быть возможность</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>получать бонус за</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>бонус за покупка</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>покупка в зарубежный</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>в зарубежный магазин</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>зарубежный магазин но</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>магазин но комиссия</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>но комиссия за</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>снятие наличный за</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>наличный за граница</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>за граница довольно</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>граница довольно высокий</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>хороший вариант для</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>вариант для студент</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>для студент быть</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>студент быть возможность</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>быть возможность отложить</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>возможность отложить первый</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>отложить первый взнос</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>первый взнос но</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>взнос но процентный</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>но процентный ставка</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>процентный ставка немного</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ставка немного высокий</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>этот план мобильный</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>план мобильный приложение</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>быть нюанс вклад</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>для cashback ипотека</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>мобильный приложение smart</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>довольно жесткий вклад</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>рекоменуть все мобильный</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>все мобильный приложение</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>куда расти кредитная</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>расти кредитная карта</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>быть нюанс дебетовой</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>нюанс дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>и комфорт ипотека</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>комфорт ипотека новостройка</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>нюанс вклад сберегательный</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>снятие деньги мобильный</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>деньги мобильный приложение</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>жесткий вклад пенсионный</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>cashback ипотека молодой</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ипотека молодой семья</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>средний карта дебетовой</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>карта дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>небольшой недостаток кредитный</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>недостаток кредитный карта</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>прекрасный карта стильный</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>карта стильный дизайн</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>стильный дизайн возможность</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>дизайн возможность получать</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>получать бонус а</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>бонус а еще</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>а еще быть</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>еще быть страховка</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>быть страховка от</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>страховка от кража</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>от кража не</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>кража не мочь</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>не мочь нарадоваться</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>мочь нарадоваться дебетовой</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>нарадоваться дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>дебетовой карта silver</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>другой банк вклад</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>банк вклад накопительный</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>комфорт ипотека студенческий</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>довольно высокий дебетовой</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>высокий дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>простой карта без</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>карта без излишество</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>без излишество но</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>излишество но нет</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>никакой бонус в</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>бонус в целое</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>нормальный карта для</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>повседневный покупка ипотека</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>покупка ипотека мой</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ипотека мой мечта</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>идеальный карта бесплатный</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>бесплатный обслуживание высокий</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>обслуживание высокий cashback</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>высокий cashback а</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>cashback а еще</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>а еще возможность</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>еще возможность путешествовать</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>возможность путешествовать в</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>путешествовать в бизнескласса</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>в бизнескласса я</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>бизнескласса я очень</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>я очень довольный</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>очень довольный дебетовой</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>довольный дебетовой карта</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>дебетовой карта basic</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>проблема с интернетбанк</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>с интернетбанк в</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>интернетбанк в целое</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>быть нюанс кредитный</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>нюанс кредитный карта</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>кредитный карта platinum</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>жаль что нет</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>что нет возможность</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>мобильный приложение smartbank</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>высокий чем я</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>чем я ожидать</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>я ожидать но</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ожидать но зато</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>но зато условие</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>зато условие оформление</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>условие оформление очень</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>оформление очень лояльный</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>очень лояльный довольный</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>лояльный довольный вклад</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>довольный вклад доходный</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>быть недостаток кредитный</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>кредитный карта travel</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>нет возможность снять</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>возможность снять деньги</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>снять деньги онлайн</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>деньги онлайн хотеться</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>мобильный приложение mobilebank</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>кредитная карта mastercard</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>карта mastercard gold</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>дебетовой карта visa</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>карта visa gold</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>хороший ипотека процентный</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ипотека процентный ставка</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>процентный ставка вполне</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ставка вполне адекватный</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>вполне адекватный но</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>адекватный но условие</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>но условие оформление</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>условие оформление достаточно</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>оформление достаточно сложный</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>достаточно сложный в</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>сложный в целое</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>в целое рекоменуть</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>целое рекоменуть вклад</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>рекоменуть вклад стабильный</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>удобный карта бесплатный</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>бесплатный обслуживание но</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>обслуживание но не</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>не очень большой</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>очень большой cashback</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>большой cashback в</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>cashback в целое</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>целое хороший карта</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>хороший карта для</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>покупка ипотека счастливый</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ипотека счастливый семья</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>жесткий вклад доходный</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>cashback ипотека счастливый</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>неплохой карта но</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>карта но нет</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>дебетовой карта maestro</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>кредитный карта visa</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>карта visa classic</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>мобильный приложение simple</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>карта visa infinite</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>мобильный приложение bank</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>дебетовой карта mastercard</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>карта mastercard platinum</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>карта visa platinum</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>кредитный карта gold</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/frequency_analysis_project/static/frequency_analysis.xlsx
+++ b/frequency_analysis_project/static/frequency_analysis.xlsx
@@ -2938,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2957,6 +2957,11 @@
           <t>Frequency</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2967,6 +2972,11 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2977,6 +2987,11 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2987,6 +3002,11 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2997,6 +3017,11 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3007,6 +3032,11 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3017,6 +3047,11 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3027,6 +3062,11 @@
       <c r="B8" t="n">
         <v>19</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3037,6 +3077,11 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3047,6 +3092,11 @@
       <c r="B10" t="n">
         <v>19</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3057,6 +3107,11 @@
       <c r="B11" t="n">
         <v>73</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3067,6 +3122,11 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3077,6 +3137,11 @@
       <c r="B13" t="n">
         <v>15</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3087,6 +3152,11 @@
       <c r="B14" t="n">
         <v>27</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3097,6 +3167,11 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3107,6 +3182,11 @@
       <c r="B16" t="n">
         <v>17</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3117,6 +3197,11 @@
       <c r="B17" t="n">
         <v>4</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3127,6 +3212,11 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3137,6 +3227,11 @@
       <c r="B19" t="n">
         <v>16</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3147,6 +3242,11 @@
       <c r="B20" t="n">
         <v>16</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3157,6 +3257,11 @@
       <c r="B21" t="n">
         <v>77</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3167,6 +3272,11 @@
       <c r="B22" t="n">
         <v>10</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3177,6 +3287,11 @@
       <c r="B23" t="n">
         <v>11</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3187,6 +3302,11 @@
       <c r="B24" t="n">
         <v>10</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3197,6 +3317,11 @@
       <c r="B25" t="n">
         <v>10</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3207,6 +3332,11 @@
       <c r="B26" t="n">
         <v>10</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3217,6 +3347,11 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3227,6 +3362,11 @@
       <c r="B28" t="n">
         <v>10</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3237,6 +3377,11 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3247,6 +3392,11 @@
       <c r="B30" t="n">
         <v>7</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3257,6 +3407,11 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3267,6 +3422,11 @@
       <c r="B32" t="n">
         <v>7</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3277,6 +3437,11 @@
       <c r="B33" t="n">
         <v>12</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3287,6 +3452,11 @@
       <c r="B34" t="n">
         <v>25</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3297,6 +3467,11 @@
       <c r="B35" t="n">
         <v>25</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3307,6 +3482,11 @@
       <c r="B36" t="n">
         <v>12</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3317,6 +3497,11 @@
       <c r="B37" t="n">
         <v>12</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3327,6 +3512,11 @@
       <c r="B38" t="n">
         <v>12</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3337,6 +3527,11 @@
       <c r="B39" t="n">
         <v>12</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3347,6 +3542,11 @@
       <c r="B40" t="n">
         <v>12</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3357,6 +3557,11 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3367,6 +3572,11 @@
       <c r="B42" t="n">
         <v>4</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3377,6 +3587,11 @@
       <c r="B43" t="n">
         <v>6</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3387,6 +3602,11 @@
       <c r="B44" t="n">
         <v>9</v>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3397,6 +3617,11 @@
       <c r="B45" t="n">
         <v>13</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3407,6 +3632,11 @@
       <c r="B46" t="n">
         <v>9</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3417,6 +3647,11 @@
       <c r="B47" t="n">
         <v>11</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3427,6 +3662,11 @@
       <c r="B48" t="n">
         <v>7</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3437,6 +3677,11 @@
       <c r="B49" t="n">
         <v>4</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3447,6 +3692,11 @@
       <c r="B50" t="n">
         <v>12</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3457,6 +3707,11 @@
       <c r="B51" t="n">
         <v>25</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3467,6 +3722,11 @@
       <c r="B52" t="n">
         <v>20</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3477,6 +3737,11 @@
       <c r="B53" t="n">
         <v>15</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3487,6 +3752,11 @@
       <c r="B54" t="n">
         <v>15</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3497,6 +3767,11 @@
       <c r="B55" t="n">
         <v>7</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3507,6 +3782,11 @@
       <c r="B56" t="n">
         <v>13</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3517,6 +3797,11 @@
       <c r="B57" t="n">
         <v>49</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3527,6 +3812,11 @@
       <c r="B58" t="n">
         <v>44</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3537,6 +3827,11 @@
       <c r="B59" t="n">
         <v>7</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3547,6 +3842,11 @@
       <c r="B60" t="n">
         <v>26</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3557,6 +3857,11 @@
       <c r="B61" t="n">
         <v>8</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3567,6 +3872,11 @@
       <c r="B62" t="n">
         <v>8</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3577,6 +3887,11 @@
       <c r="B63" t="n">
         <v>43</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3587,6 +3902,11 @@
       <c r="B64" t="n">
         <v>25</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3597,6 +3917,11 @@
       <c r="B65" t="n">
         <v>12</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3607,6 +3932,11 @@
       <c r="B66" t="n">
         <v>12</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3617,6 +3947,11 @@
       <c r="B67" t="n">
         <v>29</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3627,6 +3962,11 @@
       <c r="B68" t="n">
         <v>42</v>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3637,6 +3977,11 @@
       <c r="B69" t="n">
         <v>41</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3647,6 +3992,11 @@
       <c r="B70" t="n">
         <v>18</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3657,6 +4007,11 @@
       <c r="B71" t="n">
         <v>12</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3667,6 +4022,11 @@
       <c r="B72" t="n">
         <v>12</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3677,6 +4037,11 @@
       <c r="B73" t="n">
         <v>9</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3687,6 +4052,11 @@
       <c r="B74" t="n">
         <v>7</v>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3697,6 +4067,11 @@
       <c r="B75" t="n">
         <v>29</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3707,6 +4082,11 @@
       <c r="B76" t="n">
         <v>31</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3717,6 +4097,11 @@
       <c r="B77" t="n">
         <v>9</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3727,6 +4112,11 @@
       <c r="B78" t="n">
         <v>53</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3737,6 +4127,11 @@
       <c r="B79" t="n">
         <v>26</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3747,6 +4142,11 @@
       <c r="B80" t="n">
         <v>13</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3757,6 +4157,11 @@
       <c r="B81" t="n">
         <v>8</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3767,6 +4172,11 @@
       <c r="B82" t="n">
         <v>31</v>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3777,6 +4187,11 @@
       <c r="B83" t="n">
         <v>42</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3787,6 +4202,11 @@
       <c r="B84" t="n">
         <v>20</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3797,6 +4217,11 @@
       <c r="B85" t="n">
         <v>13</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3807,6 +4232,11 @@
       <c r="B86" t="n">
         <v>13</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3817,6 +4247,11 @@
       <c r="B87" t="n">
         <v>13</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3827,6 +4262,11 @@
       <c r="B88" t="n">
         <v>13</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3837,6 +4277,11 @@
       <c r="B89" t="n">
         <v>13</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3847,6 +4292,11 @@
       <c r="B90" t="n">
         <v>13</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3857,6 +4307,11 @@
       <c r="B91" t="n">
         <v>13</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3867,6 +4322,11 @@
       <c r="B92" t="n">
         <v>13</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3877,6 +4337,11 @@
       <c r="B93" t="n">
         <v>13</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3887,6 +4352,11 @@
       <c r="B94" t="n">
         <v>13</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3897,6 +4367,11 @@
       <c r="B95" t="n">
         <v>13</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3907,6 +4382,11 @@
       <c r="B96" t="n">
         <v>13</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3917,6 +4397,11 @@
       <c r="B97" t="n">
         <v>13</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3927,6 +4412,11 @@
       <c r="B98" t="n">
         <v>13</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3937,6 +4427,11 @@
       <c r="B99" t="n">
         <v>13</v>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3947,6 +4442,11 @@
       <c r="B100" t="n">
         <v>7</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3957,6 +4457,11 @@
       <c r="B101" t="n">
         <v>7</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3967,6 +4472,11 @@
       <c r="B102" t="n">
         <v>7</v>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3977,6 +4487,11 @@
       <c r="B103" t="n">
         <v>7</v>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3987,6 +4502,11 @@
       <c r="B104" t="n">
         <v>13</v>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3997,6 +4517,11 @@
       <c r="B105" t="n">
         <v>13</v>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4007,6 +4532,11 @@
       <c r="B106" t="n">
         <v>7</v>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4017,6 +4547,11 @@
       <c r="B107" t="n">
         <v>7</v>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4027,6 +4562,11 @@
       <c r="B108" t="n">
         <v>7</v>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4037,6 +4577,11 @@
       <c r="B109" t="n">
         <v>7</v>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4047,6 +4592,11 @@
       <c r="B110" t="n">
         <v>7</v>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4057,6 +4607,11 @@
       <c r="B111" t="n">
         <v>7</v>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4067,6 +4622,11 @@
       <c r="B112" t="n">
         <v>18</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4077,6 +4637,11 @@
       <c r="B113" t="n">
         <v>13</v>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4087,6 +4652,11 @@
       <c r="B114" t="n">
         <v>13</v>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4097,6 +4667,11 @@
       <c r="B115" t="n">
         <v>13</v>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4107,6 +4682,11 @@
       <c r="B116" t="n">
         <v>13</v>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4117,6 +4697,11 @@
       <c r="B117" t="n">
         <v>25</v>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4127,6 +4712,11 @@
       <c r="B118" t="n">
         <v>25</v>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4137,6 +4727,11 @@
       <c r="B119" t="n">
         <v>13</v>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4147,6 +4742,11 @@
       <c r="B120" t="n">
         <v>13</v>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4157,6 +4757,11 @@
       <c r="B121" t="n">
         <v>13</v>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4167,6 +4772,11 @@
       <c r="B122" t="n">
         <v>8</v>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4177,6 +4787,11 @@
       <c r="B123" t="n">
         <v>8</v>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4187,6 +4802,11 @@
       <c r="B124" t="n">
         <v>8</v>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4197,6 +4817,11 @@
       <c r="B125" t="n">
         <v>21</v>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4207,6 +4832,11 @@
       <c r="B126" t="n">
         <v>7</v>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4217,6 +4847,11 @@
       <c r="B127" t="n">
         <v>7</v>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4227,6 +4862,11 @@
       <c r="B128" t="n">
         <v>7</v>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4237,6 +4877,11 @@
       <c r="B129" t="n">
         <v>7</v>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4247,6 +4892,11 @@
       <c r="B130" t="n">
         <v>7</v>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4257,6 +4907,11 @@
       <c r="B131" t="n">
         <v>7</v>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4267,6 +4922,11 @@
       <c r="B132" t="n">
         <v>35</v>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4277,6 +4937,11 @@
       <c r="B133" t="n">
         <v>7</v>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4287,6 +4952,11 @@
       <c r="B134" t="n">
         <v>7</v>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4297,6 +4967,11 @@
       <c r="B135" t="n">
         <v>7</v>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4307,6 +4982,11 @@
       <c r="B136" t="n">
         <v>7</v>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4317,6 +4997,11 @@
       <c r="B137" t="n">
         <v>7</v>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4327,6 +5012,11 @@
       <c r="B138" t="n">
         <v>7</v>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4337,6 +5027,11 @@
       <c r="B139" t="n">
         <v>7</v>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4347,6 +5042,11 @@
       <c r="B140" t="n">
         <v>7</v>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4357,6 +5057,11 @@
       <c r="B141" t="n">
         <v>7</v>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4367,6 +5072,11 @@
       <c r="B142" t="n">
         <v>7</v>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4377,6 +5087,11 @@
       <c r="B143" t="n">
         <v>29</v>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4387,6 +5102,11 @@
       <c r="B144" t="n">
         <v>29</v>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4397,6 +5117,11 @@
       <c r="B145" t="n">
         <v>29</v>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4407,6 +5132,11 @@
       <c r="B146" t="n">
         <v>7</v>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4417,6 +5147,11 @@
       <c r="B147" t="n">
         <v>7</v>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4427,6 +5162,11 @@
       <c r="B148" t="n">
         <v>7</v>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4437,6 +5177,11 @@
       <c r="B149" t="n">
         <v>7</v>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4447,6 +5192,11 @@
       <c r="B150" t="n">
         <v>7</v>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4457,6 +5207,11 @@
       <c r="B151" t="n">
         <v>12</v>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4467,6 +5222,11 @@
       <c r="B152" t="n">
         <v>12</v>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4477,6 +5237,11 @@
       <c r="B153" t="n">
         <v>13</v>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4487,6 +5252,11 @@
       <c r="B154" t="n">
         <v>13</v>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4497,6 +5267,11 @@
       <c r="B155" t="n">
         <v>13</v>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4507,6 +5282,11 @@
       <c r="B156" t="n">
         <v>13</v>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4517,6 +5297,11 @@
       <c r="B157" t="n">
         <v>13</v>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4527,6 +5312,11 @@
       <c r="B158" t="n">
         <v>13</v>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4537,6 +5327,11 @@
       <c r="B159" t="n">
         <v>13</v>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4547,6 +5342,11 @@
       <c r="B160" t="n">
         <v>13</v>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4557,6 +5357,11 @@
       <c r="B161" t="n">
         <v>13</v>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4567,6 +5372,11 @@
       <c r="B162" t="n">
         <v>13</v>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4577,6 +5387,11 @@
       <c r="B163" t="n">
         <v>7</v>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4587,6 +5402,11 @@
       <c r="B164" t="n">
         <v>6</v>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4597,6 +5417,11 @@
       <c r="B165" t="n">
         <v>6</v>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4607,6 +5432,11 @@
       <c r="B166" t="n">
         <v>6</v>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4617,6 +5447,11 @@
       <c r="B167" t="n">
         <v>6</v>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="B168" t="n">
         <v>23</v>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4637,6 +5477,11 @@
       <c r="B169" t="n">
         <v>6</v>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4647,6 +5492,11 @@
       <c r="B170" t="n">
         <v>6</v>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4657,6 +5507,11 @@
       <c r="B171" t="n">
         <v>6</v>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4667,6 +5522,11 @@
       <c r="B172" t="n">
         <v>6</v>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4677,6 +5537,11 @@
       <c r="B173" t="n">
         <v>6</v>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4687,6 +5552,11 @@
       <c r="B174" t="n">
         <v>6</v>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4697,6 +5567,11 @@
       <c r="B175" t="n">
         <v>6</v>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4707,6 +5582,11 @@
       <c r="B176" t="n">
         <v>28</v>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4717,6 +5597,11 @@
       <c r="B177" t="n">
         <v>22</v>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4727,6 +5612,11 @@
       <c r="B178" t="n">
         <v>22</v>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4737,6 +5627,11 @@
       <c r="B179" t="n">
         <v>17</v>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4747,6 +5642,11 @@
       <c r="B180" t="n">
         <v>17</v>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4757,6 +5657,11 @@
       <c r="B181" t="n">
         <v>27</v>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4767,6 +5672,11 @@
       <c r="B182" t="n">
         <v>22</v>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4777,6 +5687,11 @@
       <c r="B183" t="n">
         <v>12</v>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4787,6 +5702,11 @@
       <c r="B184" t="n">
         <v>12</v>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4797,6 +5717,11 @@
       <c r="B185" t="n">
         <v>11</v>
       </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4807,6 +5732,11 @@
       <c r="B186" t="n">
         <v>16</v>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4817,6 +5747,11 @@
       <c r="B187" t="n">
         <v>16</v>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4827,6 +5762,11 @@
       <c r="B188" t="n">
         <v>6</v>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4837,6 +5777,11 @@
       <c r="B189" t="n">
         <v>16</v>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4847,6 +5792,11 @@
       <c r="B190" t="n">
         <v>16</v>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4857,6 +5807,11 @@
       <c r="B191" t="n">
         <v>16</v>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4867,6 +5822,11 @@
       <c r="B192" t="n">
         <v>11</v>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4877,6 +5837,11 @@
       <c r="B193" t="n">
         <v>11</v>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4887,6 +5852,11 @@
       <c r="B194" t="n">
         <v>11</v>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4897,6 +5867,11 @@
       <c r="B195" t="n">
         <v>11</v>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4907,6 +5882,11 @@
       <c r="B196" t="n">
         <v>11</v>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4917,6 +5897,11 @@
       <c r="B197" t="n">
         <v>11</v>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4927,6 +5912,11 @@
       <c r="B198" t="n">
         <v>11</v>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4937,6 +5927,11 @@
       <c r="B199" t="n">
         <v>6</v>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4947,6 +5942,11 @@
       <c r="B200" t="n">
         <v>11</v>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4957,6 +5957,11 @@
       <c r="B201" t="n">
         <v>6</v>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4967,6 +5972,11 @@
       <c r="B202" t="n">
         <v>6</v>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4977,6 +5987,11 @@
       <c r="B203" t="n">
         <v>6</v>
       </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4987,6 +6002,11 @@
       <c r="B204" t="n">
         <v>6</v>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4997,6 +6017,11 @@
       <c r="B205" t="n">
         <v>17</v>
       </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5007,6 +6032,11 @@
       <c r="B206" t="n">
         <v>17</v>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5017,6 +6047,11 @@
       <c r="B207" t="n">
         <v>17</v>
       </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5027,6 +6062,11 @@
       <c r="B208" t="n">
         <v>17</v>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5037,6 +6077,11 @@
       <c r="B209" t="n">
         <v>17</v>
       </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5047,6 +6092,11 @@
       <c r="B210" t="n">
         <v>12</v>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5057,6 +6107,11 @@
       <c r="B211" t="n">
         <v>6</v>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5067,6 +6122,11 @@
       <c r="B212" t="n">
         <v>6</v>
       </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5077,6 +6137,11 @@
       <c r="B213" t="n">
         <v>6</v>
       </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5087,6 +6152,11 @@
       <c r="B214" t="n">
         <v>6</v>
       </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5097,6 +6167,11 @@
       <c r="B215" t="n">
         <v>6</v>
       </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5107,6 +6182,11 @@
       <c r="B216" t="n">
         <v>6</v>
       </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5117,6 +6197,11 @@
       <c r="B217" t="n">
         <v>6</v>
       </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5127,6 +6212,11 @@
       <c r="B218" t="n">
         <v>6</v>
       </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5137,6 +6227,11 @@
       <c r="B219" t="n">
         <v>6</v>
       </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5147,6 +6242,11 @@
       <c r="B220" t="n">
         <v>6</v>
       </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5157,6 +6257,11 @@
       <c r="B221" t="n">
         <v>6</v>
       </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5167,6 +6272,11 @@
       <c r="B222" t="n">
         <v>6</v>
       </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5177,6 +6287,11 @@
       <c r="B223" t="n">
         <v>6</v>
       </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5187,6 +6302,11 @@
       <c r="B224" t="n">
         <v>6</v>
       </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5197,6 +6317,11 @@
       <c r="B225" t="n">
         <v>6</v>
       </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5207,6 +6332,11 @@
       <c r="B226" t="n">
         <v>6</v>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5217,6 +6347,11 @@
       <c r="B227" t="n">
         <v>6</v>
       </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5227,6 +6362,11 @@
       <c r="B228" t="n">
         <v>6</v>
       </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5237,6 +6377,11 @@
       <c r="B229" t="n">
         <v>6</v>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5247,6 +6392,11 @@
       <c r="B230" t="n">
         <v>6</v>
       </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5257,6 +6407,11 @@
       <c r="B231" t="n">
         <v>6</v>
       </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5267,6 +6422,11 @@
       <c r="B232" t="n">
         <v>6</v>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5277,6 +6437,11 @@
       <c r="B233" t="n">
         <v>6</v>
       </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5287,6 +6452,11 @@
       <c r="B234" t="n">
         <v>6</v>
       </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5297,6 +6467,11 @@
       <c r="B235" t="n">
         <v>6</v>
       </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5307,6 +6482,11 @@
       <c r="B236" t="n">
         <v>6</v>
       </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5317,6 +6497,11 @@
       <c r="B237" t="n">
         <v>6</v>
       </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5327,6 +6512,11 @@
       <c r="B238" t="n">
         <v>6</v>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5337,6 +6527,11 @@
       <c r="B239" t="n">
         <v>6</v>
       </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5347,6 +6542,11 @@
       <c r="B240" t="n">
         <v>6</v>
       </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5357,6 +6557,11 @@
       <c r="B241" t="n">
         <v>10</v>
       </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5367,6 +6572,11 @@
       <c r="B242" t="n">
         <v>33</v>
       </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5377,6 +6587,11 @@
       <c r="B243" t="n">
         <v>11</v>
       </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5387,6 +6602,11 @@
       <c r="B244" t="n">
         <v>6</v>
       </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5397,6 +6617,11 @@
       <c r="B245" t="n">
         <v>11</v>
       </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5407,6 +6632,11 @@
       <c r="B246" t="n">
         <v>33</v>
       </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5417,6 +6647,11 @@
       <c r="B247" t="n">
         <v>6</v>
       </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5427,6 +6662,11 @@
       <c r="B248" t="n">
         <v>6</v>
       </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5437,6 +6677,11 @@
       <c r="B249" t="n">
         <v>6</v>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5447,6 +6692,11 @@
       <c r="B250" t="n">
         <v>11</v>
       </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5457,6 +6707,11 @@
       <c r="B251" t="n">
         <v>11</v>
       </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5467,6 +6722,11 @@
       <c r="B252" t="n">
         <v>5</v>
       </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5477,6 +6737,11 @@
       <c r="B253" t="n">
         <v>11</v>
       </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5487,6 +6752,11 @@
       <c r="B254" t="n">
         <v>6</v>
       </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5497,6 +6767,11 @@
       <c r="B255" t="n">
         <v>6</v>
       </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5507,6 +6782,11 @@
       <c r="B256" t="n">
         <v>6</v>
       </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5517,6 +6797,11 @@
       <c r="B257" t="n">
         <v>6</v>
       </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5527,6 +6812,11 @@
       <c r="B258" t="n">
         <v>11</v>
       </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5537,6 +6827,11 @@
       <c r="B259" t="n">
         <v>6</v>
       </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5547,6 +6842,11 @@
       <c r="B260" t="n">
         <v>5</v>
       </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5557,6 +6857,11 @@
       <c r="B261" t="n">
         <v>15</v>
       </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5567,6 +6872,11 @@
       <c r="B262" t="n">
         <v>5</v>
       </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5577,6 +6887,11 @@
       <c r="B263" t="n">
         <v>5</v>
       </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5587,6 +6902,11 @@
       <c r="B264" t="n">
         <v>10</v>
       </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5597,6 +6917,11 @@
       <c r="B265" t="n">
         <v>15</v>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -5607,6 +6932,11 @@
       <c r="B266" t="n">
         <v>25</v>
       </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -5617,6 +6947,11 @@
       <c r="B267" t="n">
         <v>5</v>
       </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5627,6 +6962,11 @@
       <c r="B268" t="n">
         <v>5</v>
       </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5637,6 +6977,11 @@
       <c r="B269" t="n">
         <v>5</v>
       </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5647,6 +6992,11 @@
       <c r="B270" t="n">
         <v>5</v>
       </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -5657,6 +7007,11 @@
       <c r="B271" t="n">
         <v>10</v>
       </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -5667,6 +7022,11 @@
       <c r="B272" t="n">
         <v>5</v>
       </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -5677,6 +7037,11 @@
       <c r="B273" t="n">
         <v>5</v>
       </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -5687,6 +7052,11 @@
       <c r="B274" t="n">
         <v>5</v>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -5697,6 +7067,11 @@
       <c r="B275" t="n">
         <v>5</v>
       </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -5707,6 +7082,11 @@
       <c r="B276" t="n">
         <v>5</v>
       </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5717,6 +7097,11 @@
       <c r="B277" t="n">
         <v>5</v>
       </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5727,6 +7112,11 @@
       <c r="B278" t="n">
         <v>5</v>
       </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5737,6 +7127,11 @@
       <c r="B279" t="n">
         <v>5</v>
       </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5747,6 +7142,11 @@
       <c r="B280" t="n">
         <v>5</v>
       </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5757,6 +7157,11 @@
       <c r="B281" t="n">
         <v>5</v>
       </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -5767,6 +7172,11 @@
       <c r="B282" t="n">
         <v>5</v>
       </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5777,6 +7187,11 @@
       <c r="B283" t="n">
         <v>5</v>
       </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5787,6 +7202,11 @@
       <c r="B284" t="n">
         <v>5</v>
       </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -5797,6 +7217,11 @@
       <c r="B285" t="n">
         <v>5</v>
       </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -5807,6 +7232,11 @@
       <c r="B286" t="n">
         <v>5</v>
       </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5817,6 +7247,11 @@
       <c r="B287" t="n">
         <v>5</v>
       </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -5827,6 +7262,11 @@
       <c r="B288" t="n">
         <v>10</v>
       </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -5837,6 +7277,11 @@
       <c r="B289" t="n">
         <v>5</v>
       </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -5847,6 +7292,11 @@
       <c r="B290" t="n">
         <v>5</v>
       </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5857,6 +7307,11 @@
       <c r="B291" t="n">
         <v>5</v>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -5867,6 +7322,11 @@
       <c r="B292" t="n">
         <v>5</v>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -5877,6 +7337,11 @@
       <c r="B293" t="n">
         <v>5</v>
       </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -5887,6 +7352,11 @@
       <c r="B294" t="n">
         <v>5</v>
       </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -5897,6 +7367,11 @@
       <c r="B295" t="n">
         <v>5</v>
       </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -5907,6 +7382,11 @@
       <c r="B296" t="n">
         <v>5</v>
       </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -5917,6 +7397,11 @@
       <c r="B297" t="n">
         <v>5</v>
       </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -5927,6 +7412,11 @@
       <c r="B298" t="n">
         <v>5</v>
       </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -5937,6 +7427,11 @@
       <c r="B299" t="n">
         <v>5</v>
       </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -5947,6 +7442,11 @@
       <c r="B300" t="n">
         <v>5</v>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5957,6 +7457,11 @@
       <c r="B301" t="n">
         <v>5</v>
       </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -5967,6 +7472,11 @@
       <c r="B302" t="n">
         <v>5</v>
       </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5977,6 +7487,11 @@
       <c r="B303" t="n">
         <v>5</v>
       </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -5987,6 +7502,11 @@
       <c r="B304" t="n">
         <v>10</v>
       </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5997,6 +7517,11 @@
       <c r="B305" t="n">
         <v>5</v>
       </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6007,6 +7532,11 @@
       <c r="B306" t="n">
         <v>10</v>
       </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6017,6 +7547,11 @@
       <c r="B307" t="n">
         <v>5</v>
       </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6027,6 +7562,11 @@
       <c r="B308" t="n">
         <v>5</v>
       </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6037,6 +7577,11 @@
       <c r="B309" t="n">
         <v>5</v>
       </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6047,6 +7592,11 @@
       <c r="B310" t="n">
         <v>5</v>
       </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6057,6 +7607,11 @@
       <c r="B311" t="n">
         <v>5</v>
       </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6067,6 +7622,11 @@
       <c r="B312" t="n">
         <v>10</v>
       </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -6077,6 +7637,11 @@
       <c r="B313" t="n">
         <v>5</v>
       </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -6087,6 +7652,11 @@
       <c r="B314" t="n">
         <v>5</v>
       </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6097,6 +7667,11 @@
       <c r="B315" t="n">
         <v>5</v>
       </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6107,6 +7682,11 @@
       <c r="B316" t="n">
         <v>5</v>
       </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6117,6 +7697,11 @@
       <c r="B317" t="n">
         <v>5</v>
       </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -6127,6 +7712,11 @@
       <c r="B318" t="n">
         <v>5</v>
       </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6137,6 +7727,11 @@
       <c r="B319" t="n">
         <v>5</v>
       </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6147,6 +7742,11 @@
       <c r="B320" t="n">
         <v>5</v>
       </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6157,6 +7757,11 @@
       <c r="B321" t="n">
         <v>5</v>
       </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6167,6 +7772,11 @@
       <c r="B322" t="n">
         <v>9</v>
       </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6177,6 +7787,11 @@
       <c r="B323" t="n">
         <v>5</v>
       </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6187,6 +7802,11 @@
       <c r="B324" t="n">
         <v>18</v>
       </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6197,6 +7817,11 @@
       <c r="B325" t="n">
         <v>5</v>
       </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6207,6 +7832,11 @@
       <c r="B326" t="n">
         <v>5</v>
       </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6217,6 +7847,11 @@
       <c r="B327" t="n">
         <v>5</v>
       </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6227,6 +7862,11 @@
       <c r="B328" t="n">
         <v>5</v>
       </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6237,6 +7877,11 @@
       <c r="B329" t="n">
         <v>5</v>
       </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -6247,6 +7892,11 @@
       <c r="B330" t="n">
         <v>5</v>
       </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -6257,6 +7907,11 @@
       <c r="B331" t="n">
         <v>5</v>
       </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6267,6 +7922,11 @@
       <c r="B332" t="n">
         <v>5</v>
       </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -6277,6 +7937,11 @@
       <c r="B333" t="n">
         <v>5</v>
       </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -6287,6 +7952,11 @@
       <c r="B334" t="n">
         <v>5</v>
       </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -6297,6 +7967,11 @@
       <c r="B335" t="n">
         <v>5</v>
       </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -6307,6 +7982,11 @@
       <c r="B336" t="n">
         <v>5</v>
       </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -6317,6 +7997,11 @@
       <c r="B337" t="n">
         <v>5</v>
       </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -6327,6 +8012,11 @@
       <c r="B338" t="n">
         <v>5</v>
       </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -6337,6 +8027,11 @@
       <c r="B339" t="n">
         <v>5</v>
       </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -6347,6 +8042,11 @@
       <c r="B340" t="n">
         <v>5</v>
       </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -6357,6 +8057,11 @@
       <c r="B341" t="n">
         <v>10</v>
       </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -6367,6 +8072,11 @@
       <c r="B342" t="n">
         <v>5</v>
       </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -6377,6 +8087,11 @@
       <c r="B343" t="n">
         <v>5</v>
       </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -6387,6 +8102,11 @@
       <c r="B344" t="n">
         <v>4</v>
       </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -6397,6 +8117,11 @@
       <c r="B345" t="n">
         <v>4</v>
       </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6407,6 +8132,11 @@
       <c r="B346" t="n">
         <v>7</v>
       </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -6417,6 +8147,11 @@
       <c r="B347" t="n">
         <v>4</v>
       </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -6427,6 +8162,11 @@
       <c r="B348" t="n">
         <v>4</v>
       </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -6436,6 +8176,11 @@
       </c>
       <c r="B349" t="n">
         <v>4</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6449,7 +8194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:C388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6468,6 +8213,11 @@
           <t>Frequency</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6478,6 +8228,11 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6488,6 +8243,11 @@
       <c r="B3" t="n">
         <v>19</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6498,6 +8258,11 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6508,6 +8273,11 @@
       <c r="B5" t="n">
         <v>15</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6518,6 +8288,11 @@
       <c r="B6" t="n">
         <v>16</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6528,6 +8303,11 @@
       <c r="B7" t="n">
         <v>16</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6538,6 +8318,11 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6548,6 +8333,11 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6558,6 +8348,11 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6568,6 +8363,11 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6578,6 +8378,11 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6588,6 +8393,11 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6598,6 +8408,11 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6608,6 +8423,11 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6618,6 +8438,11 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6628,6 +8453,11 @@
       <c r="B17" t="n">
         <v>7</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6638,6 +8468,11 @@
       <c r="B18" t="n">
         <v>12</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6648,6 +8483,11 @@
       <c r="B19" t="n">
         <v>25</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6658,6 +8498,11 @@
       <c r="B20" t="n">
         <v>25</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6668,6 +8513,11 @@
       <c r="B21" t="n">
         <v>12</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6678,6 +8528,11 @@
       <c r="B22" t="n">
         <v>12</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6688,6 +8543,11 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6698,6 +8558,11 @@
       <c r="B24" t="n">
         <v>12</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6708,6 +8573,11 @@
       <c r="B25" t="n">
         <v>12</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6718,6 +8588,11 @@
       <c r="B26" t="n">
         <v>12</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6728,6 +8603,11 @@
       <c r="B27" t="n">
         <v>12</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6738,6 +8618,11 @@
       <c r="B28" t="n">
         <v>15</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6748,6 +8633,11 @@
       <c r="B29" t="n">
         <v>15</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6758,6 +8648,11 @@
       <c r="B30" t="n">
         <v>14</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6768,6 +8663,11 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6778,6 +8678,11 @@
       <c r="B32" t="n">
         <v>7</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6788,6 +8693,11 @@
       <c r="B33" t="n">
         <v>13</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6798,6 +8708,11 @@
       <c r="B34" t="n">
         <v>44</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6808,6 +8723,11 @@
       <c r="B35" t="n">
         <v>26</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6818,6 +8738,11 @@
       <c r="B36" t="n">
         <v>8</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6828,6 +8753,11 @@
       <c r="B37" t="n">
         <v>8</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6838,6 +8768,11 @@
       <c r="B38" t="n">
         <v>8</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6848,6 +8783,11 @@
       <c r="B39" t="n">
         <v>25</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6858,6 +8798,11 @@
       <c r="B40" t="n">
         <v>12</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6868,6 +8813,11 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6878,6 +8828,11 @@
       <c r="B42" t="n">
         <v>29</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6888,6 +8843,11 @@
       <c r="B43" t="n">
         <v>29</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6898,6 +8858,11 @@
       <c r="B44" t="n">
         <v>42</v>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6908,6 +8873,11 @@
       <c r="B45" t="n">
         <v>41</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6918,6 +8888,11 @@
       <c r="B46" t="n">
         <v>18</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6928,6 +8903,11 @@
       <c r="B47" t="n">
         <v>12</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6938,6 +8918,11 @@
       <c r="B48" t="n">
         <v>12</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6948,6 +8933,11 @@
       <c r="B49" t="n">
         <v>7</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6958,6 +8948,11 @@
       <c r="B50" t="n">
         <v>7</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6968,6 +8963,11 @@
       <c r="B51" t="n">
         <v>7</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6978,6 +8978,11 @@
       <c r="B52" t="n">
         <v>29</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6988,6 +8993,11 @@
       <c r="B53" t="n">
         <v>21</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6998,6 +9008,11 @@
       <c r="B54" t="n">
         <v>13</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7008,6 +9023,11 @@
       <c r="B55" t="n">
         <v>26</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7018,6 +9038,11 @@
       <c r="B56" t="n">
         <v>20</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7028,6 +9053,11 @@
       <c r="B57" t="n">
         <v>13</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7038,6 +9068,11 @@
       <c r="B58" t="n">
         <v>13</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7048,6 +9083,11 @@
       <c r="B59" t="n">
         <v>13</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7058,6 +9098,11 @@
       <c r="B60" t="n">
         <v>13</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7068,6 +9113,11 @@
       <c r="B61" t="n">
         <v>13</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7078,6 +9128,11 @@
       <c r="B62" t="n">
         <v>13</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7088,6 +9143,11 @@
       <c r="B63" t="n">
         <v>13</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7098,6 +9158,11 @@
       <c r="B64" t="n">
         <v>13</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7108,6 +9173,11 @@
       <c r="B65" t="n">
         <v>13</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>продукты</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7118,6 +9188,11 @@
       <c r="B66" t="n">
         <v>13</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7128,6 +9203,11 @@
       <c r="B67" t="n">
         <v>13</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7138,6 +9218,11 @@
       <c r="B68" t="n">
         <v>13</v>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7148,6 +9233,11 @@
       <c r="B69" t="n">
         <v>13</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7158,6 +9248,11 @@
       <c r="B70" t="n">
         <v>13</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7168,6 +9263,11 @@
       <c r="B71" t="n">
         <v>13</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7178,6 +9278,11 @@
       <c r="B72" t="n">
         <v>13</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7188,6 +9293,11 @@
       <c r="B73" t="n">
         <v>7</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7198,6 +9308,11 @@
       <c r="B74" t="n">
         <v>7</v>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7208,6 +9323,11 @@
       <c r="B75" t="n">
         <v>7</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7218,6 +9338,11 @@
       <c r="B76" t="n">
         <v>7</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7228,6 +9353,11 @@
       <c r="B77" t="n">
         <v>7</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7238,6 +9368,11 @@
       <c r="B78" t="n">
         <v>13</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7248,6 +9383,11 @@
       <c r="B79" t="n">
         <v>13</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7258,6 +9398,11 @@
       <c r="B80" t="n">
         <v>13</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7268,6 +9413,11 @@
       <c r="B81" t="n">
         <v>7</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7278,6 +9428,11 @@
       <c r="B82" t="n">
         <v>7</v>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7288,6 +9443,11 @@
       <c r="B83" t="n">
         <v>7</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7298,6 +9458,11 @@
       <c r="B84" t="n">
         <v>7</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7308,6 +9473,11 @@
       <c r="B85" t="n">
         <v>7</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7318,6 +9488,11 @@
       <c r="B86" t="n">
         <v>7</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7328,6 +9503,11 @@
       <c r="B87" t="n">
         <v>7</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7338,6 +9518,11 @@
       <c r="B88" t="n">
         <v>13</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7348,6 +9533,11 @@
       <c r="B89" t="n">
         <v>13</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7358,6 +9548,11 @@
       <c r="B90" t="n">
         <v>13</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7368,6 +9563,11 @@
       <c r="B91" t="n">
         <v>13</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7378,6 +9578,11 @@
       <c r="B92" t="n">
         <v>25</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7388,6 +9593,11 @@
       <c r="B93" t="n">
         <v>13</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7398,6 +9608,11 @@
       <c r="B94" t="n">
         <v>13</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7408,6 +9623,11 @@
       <c r="B95" t="n">
         <v>13</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7418,6 +9638,11 @@
       <c r="B96" t="n">
         <v>13</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7428,6 +9653,11 @@
       <c r="B97" t="n">
         <v>8</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7438,6 +9668,11 @@
       <c r="B98" t="n">
         <v>8</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7448,6 +9683,11 @@
       <c r="B99" t="n">
         <v>8</v>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7458,6 +9698,11 @@
       <c r="B100" t="n">
         <v>8</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7468,6 +9713,11 @@
       <c r="B101" t="n">
         <v>8</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7478,6 +9728,11 @@
       <c r="B102" t="n">
         <v>7</v>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7488,6 +9743,11 @@
       <c r="B103" t="n">
         <v>7</v>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7498,6 +9758,11 @@
       <c r="B104" t="n">
         <v>7</v>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7508,6 +9773,11 @@
       <c r="B105" t="n">
         <v>7</v>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7518,6 +9788,11 @@
       <c r="B106" t="n">
         <v>7</v>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7528,6 +9803,11 @@
       <c r="B107" t="n">
         <v>7</v>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7538,6 +9818,11 @@
       <c r="B108" t="n">
         <v>7</v>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>обслуживание</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7548,6 +9833,11 @@
       <c r="B109" t="n">
         <v>7</v>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7558,6 +9848,11 @@
       <c r="B110" t="n">
         <v>7</v>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7568,6 +9863,11 @@
       <c r="B111" t="n">
         <v>7</v>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7578,6 +9878,11 @@
       <c r="B112" t="n">
         <v>7</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7588,6 +9893,11 @@
       <c r="B113" t="n">
         <v>7</v>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7598,6 +9908,11 @@
       <c r="B114" t="n">
         <v>7</v>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7608,6 +9923,11 @@
       <c r="B115" t="n">
         <v>7</v>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7618,6 +9938,11 @@
       <c r="B116" t="n">
         <v>7</v>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7628,6 +9953,11 @@
       <c r="B117" t="n">
         <v>7</v>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7638,6 +9968,11 @@
       <c r="B118" t="n">
         <v>7</v>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7648,6 +9983,11 @@
       <c r="B119" t="n">
         <v>7</v>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7658,6 +9998,11 @@
       <c r="B120" t="n">
         <v>7</v>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7668,6 +10013,11 @@
       <c r="B121" t="n">
         <v>7</v>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7678,6 +10028,11 @@
       <c r="B122" t="n">
         <v>7</v>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7688,6 +10043,11 @@
       <c r="B123" t="n">
         <v>29</v>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7698,6 +10058,11 @@
       <c r="B124" t="n">
         <v>29</v>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7708,6 +10073,11 @@
       <c r="B125" t="n">
         <v>7</v>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7718,6 +10088,11 @@
       <c r="B126" t="n">
         <v>7</v>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7728,6 +10103,11 @@
       <c r="B127" t="n">
         <v>7</v>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7738,6 +10118,11 @@
       <c r="B128" t="n">
         <v>7</v>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7748,6 +10133,11 @@
       <c r="B129" t="n">
         <v>7</v>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7758,6 +10148,11 @@
       <c r="B130" t="n">
         <v>7</v>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7768,6 +10163,11 @@
       <c r="B131" t="n">
         <v>12</v>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7778,6 +10178,11 @@
       <c r="B132" t="n">
         <v>7</v>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7788,6 +10193,11 @@
       <c r="B133" t="n">
         <v>7</v>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7798,6 +10208,11 @@
       <c r="B134" t="n">
         <v>13</v>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7808,6 +10223,11 @@
       <c r="B135" t="n">
         <v>13</v>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7818,6 +10238,11 @@
       <c r="B136" t="n">
         <v>13</v>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7828,6 +10253,11 @@
       <c r="B137" t="n">
         <v>13</v>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7838,6 +10268,11 @@
       <c r="B138" t="n">
         <v>13</v>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7848,6 +10283,11 @@
       <c r="B139" t="n">
         <v>13</v>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7858,6 +10298,11 @@
       <c r="B140" t="n">
         <v>13</v>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7868,6 +10313,11 @@
       <c r="B141" t="n">
         <v>13</v>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7878,6 +10328,11 @@
       <c r="B142" t="n">
         <v>13</v>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7888,6 +10343,11 @@
       <c r="B143" t="n">
         <v>13</v>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7898,6 +10358,11 @@
       <c r="B144" t="n">
         <v>13</v>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7908,6 +10373,11 @@
       <c r="B145" t="n">
         <v>13</v>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7918,6 +10388,11 @@
       <c r="B146" t="n">
         <v>13</v>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7928,6 +10403,11 @@
       <c r="B147" t="n">
         <v>13</v>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7938,6 +10418,11 @@
       <c r="B148" t="n">
         <v>7</v>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7948,6 +10433,11 @@
       <c r="B149" t="n">
         <v>7</v>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7958,6 +10448,11 @@
       <c r="B150" t="n">
         <v>6</v>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7968,6 +10463,11 @@
       <c r="B151" t="n">
         <v>6</v>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7978,6 +10478,11 @@
       <c r="B152" t="n">
         <v>6</v>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7988,6 +10493,11 @@
       <c r="B153" t="n">
         <v>6</v>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7998,6 +10508,11 @@
       <c r="B154" t="n">
         <v>6</v>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8008,6 +10523,11 @@
       <c r="B155" t="n">
         <v>6</v>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8018,6 +10538,11 @@
       <c r="B156" t="n">
         <v>6</v>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8028,6 +10553,11 @@
       <c r="B157" t="n">
         <v>6</v>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8038,6 +10568,11 @@
       <c r="B158" t="n">
         <v>6</v>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8048,6 +10583,11 @@
       <c r="B159" t="n">
         <v>6</v>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8058,6 +10598,11 @@
       <c r="B160" t="n">
         <v>6</v>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8068,6 +10613,11 @@
       <c r="B161" t="n">
         <v>6</v>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8078,6 +10628,11 @@
       <c r="B162" t="n">
         <v>6</v>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8088,6 +10643,11 @@
       <c r="B163" t="n">
         <v>6</v>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8098,6 +10658,11 @@
       <c r="B164" t="n">
         <v>22</v>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8108,6 +10673,11 @@
       <c r="B165" t="n">
         <v>22</v>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8118,6 +10688,11 @@
       <c r="B166" t="n">
         <v>22</v>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8128,6 +10703,11 @@
       <c r="B167" t="n">
         <v>22</v>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8138,6 +10718,11 @@
       <c r="B168" t="n">
         <v>17</v>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8148,6 +10733,11 @@
       <c r="B169" t="n">
         <v>17</v>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8158,6 +10748,11 @@
       <c r="B170" t="n">
         <v>17</v>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8168,6 +10763,11 @@
       <c r="B171" t="n">
         <v>27</v>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8178,6 +10778,11 @@
       <c r="B172" t="n">
         <v>22</v>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8188,6 +10793,11 @@
       <c r="B173" t="n">
         <v>22</v>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8198,6 +10808,11 @@
       <c r="B174" t="n">
         <v>28</v>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8208,6 +10823,11 @@
       <c r="B175" t="n">
         <v>12</v>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8218,6 +10838,11 @@
       <c r="B176" t="n">
         <v>12</v>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8228,6 +10853,11 @@
       <c r="B177" t="n">
         <v>6</v>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8238,6 +10868,11 @@
       <c r="B178" t="n">
         <v>16</v>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8248,6 +10883,11 @@
       <c r="B179" t="n">
         <v>16</v>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8258,6 +10898,11 @@
       <c r="B180" t="n">
         <v>6</v>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8268,6 +10913,11 @@
       <c r="B181" t="n">
         <v>6</v>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8278,6 +10928,11 @@
       <c r="B182" t="n">
         <v>16</v>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8288,6 +10943,11 @@
       <c r="B183" t="n">
         <v>16</v>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8298,6 +10958,11 @@
       <c r="B184" t="n">
         <v>11</v>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8308,6 +10973,11 @@
       <c r="B185" t="n">
         <v>11</v>
       </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8318,6 +10988,11 @@
       <c r="B186" t="n">
         <v>11</v>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8328,6 +11003,11 @@
       <c r="B187" t="n">
         <v>11</v>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8338,6 +11018,11 @@
       <c r="B188" t="n">
         <v>11</v>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8348,6 +11033,11 @@
       <c r="B189" t="n">
         <v>11</v>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8358,6 +11048,11 @@
       <c r="B190" t="n">
         <v>11</v>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8368,6 +11063,11 @@
       <c r="B191" t="n">
         <v>11</v>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8378,6 +11078,11 @@
       <c r="B192" t="n">
         <v>11</v>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8388,6 +11093,11 @@
       <c r="B193" t="n">
         <v>6</v>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8398,6 +11108,11 @@
       <c r="B194" t="n">
         <v>6</v>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8408,6 +11123,11 @@
       <c r="B195" t="n">
         <v>6</v>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8418,6 +11138,11 @@
       <c r="B196" t="n">
         <v>6</v>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8428,6 +11153,11 @@
       <c r="B197" t="n">
         <v>6</v>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8438,6 +11168,11 @@
       <c r="B198" t="n">
         <v>6</v>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8448,6 +11183,11 @@
       <c r="B199" t="n">
         <v>6</v>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8458,6 +11198,11 @@
       <c r="B200" t="n">
         <v>6</v>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8468,6 +11213,11 @@
       <c r="B201" t="n">
         <v>6</v>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8478,6 +11228,11 @@
       <c r="B202" t="n">
         <v>17</v>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8488,6 +11243,11 @@
       <c r="B203" t="n">
         <v>17</v>
       </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8498,6 +11258,11 @@
       <c r="B204" t="n">
         <v>17</v>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8508,6 +11273,11 @@
       <c r="B205" t="n">
         <v>17</v>
       </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8518,6 +11288,11 @@
       <c r="B206" t="n">
         <v>17</v>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8528,6 +11303,11 @@
       <c r="B207" t="n">
         <v>17</v>
       </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8538,6 +11318,11 @@
       <c r="B208" t="n">
         <v>6</v>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8548,6 +11333,11 @@
       <c r="B209" t="n">
         <v>6</v>
       </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8558,6 +11348,11 @@
       <c r="B210" t="n">
         <v>11</v>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8568,6 +11363,11 @@
       <c r="B211" t="n">
         <v>6</v>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8578,6 +11378,11 @@
       <c r="B212" t="n">
         <v>6</v>
       </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8588,6 +11393,11 @@
       <c r="B213" t="n">
         <v>6</v>
       </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8598,6 +11408,11 @@
       <c r="B214" t="n">
         <v>6</v>
       </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8608,6 +11423,11 @@
       <c r="B215" t="n">
         <v>6</v>
       </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8618,6 +11438,11 @@
       <c r="B216" t="n">
         <v>6</v>
       </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8628,6 +11453,11 @@
       <c r="B217" t="n">
         <v>6</v>
       </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8638,6 +11468,11 @@
       <c r="B218" t="n">
         <v>6</v>
       </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8648,6 +11483,11 @@
       <c r="B219" t="n">
         <v>6</v>
       </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8658,6 +11498,11 @@
       <c r="B220" t="n">
         <v>6</v>
       </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8668,6 +11513,11 @@
       <c r="B221" t="n">
         <v>6</v>
       </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8678,6 +11528,11 @@
       <c r="B222" t="n">
         <v>6</v>
       </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8688,6 +11543,11 @@
       <c r="B223" t="n">
         <v>6</v>
       </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8698,6 +11558,11 @@
       <c r="B224" t="n">
         <v>6</v>
       </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8708,6 +11573,11 @@
       <c r="B225" t="n">
         <v>6</v>
       </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8718,6 +11588,11 @@
       <c r="B226" t="n">
         <v>6</v>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8728,6 +11603,11 @@
       <c r="B227" t="n">
         <v>6</v>
       </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8738,6 +11618,11 @@
       <c r="B228" t="n">
         <v>6</v>
       </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8748,6 +11633,11 @@
       <c r="B229" t="n">
         <v>6</v>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8758,6 +11648,11 @@
       <c r="B230" t="n">
         <v>6</v>
       </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8768,6 +11663,11 @@
       <c r="B231" t="n">
         <v>6</v>
       </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8778,6 +11678,11 @@
       <c r="B232" t="n">
         <v>6</v>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8788,6 +11693,11 @@
       <c r="B233" t="n">
         <v>6</v>
       </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8798,6 +11708,11 @@
       <c r="B234" t="n">
         <v>6</v>
       </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8808,6 +11723,11 @@
       <c r="B235" t="n">
         <v>6</v>
       </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8818,6 +11738,11 @@
       <c r="B236" t="n">
         <v>6</v>
       </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8828,6 +11753,11 @@
       <c r="B237" t="n">
         <v>6</v>
       </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8838,6 +11768,11 @@
       <c r="B238" t="n">
         <v>6</v>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8848,6 +11783,11 @@
       <c r="B239" t="n">
         <v>6</v>
       </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8858,6 +11798,11 @@
       <c r="B240" t="n">
         <v>6</v>
       </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8868,6 +11813,11 @@
       <c r="B241" t="n">
         <v>6</v>
       </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8878,6 +11828,11 @@
       <c r="B242" t="n">
         <v>6</v>
       </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8888,6 +11843,11 @@
       <c r="B243" t="n">
         <v>6</v>
       </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8898,6 +11858,11 @@
       <c r="B244" t="n">
         <v>6</v>
       </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8908,6 +11873,11 @@
       <c r="B245" t="n">
         <v>6</v>
       </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8918,6 +11888,11 @@
       <c r="B246" t="n">
         <v>6</v>
       </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8928,6 +11903,11 @@
       <c r="B247" t="n">
         <v>6</v>
       </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8938,6 +11918,11 @@
       <c r="B248" t="n">
         <v>6</v>
       </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8948,6 +11933,11 @@
       <c r="B249" t="n">
         <v>11</v>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8958,6 +11948,11 @@
       <c r="B250" t="n">
         <v>11</v>
       </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8968,6 +11963,11 @@
       <c r="B251" t="n">
         <v>6</v>
       </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8978,6 +11978,11 @@
       <c r="B252" t="n">
         <v>11</v>
       </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8988,6 +11993,11 @@
       <c r="B253" t="n">
         <v>5</v>
       </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8998,6 +12008,11 @@
       <c r="B254" t="n">
         <v>11</v>
       </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9008,6 +12023,11 @@
       <c r="B255" t="n">
         <v>6</v>
       </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9018,6 +12038,11 @@
       <c r="B256" t="n">
         <v>6</v>
       </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9028,6 +12053,11 @@
       <c r="B257" t="n">
         <v>6</v>
       </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9038,6 +12068,11 @@
       <c r="B258" t="n">
         <v>6</v>
       </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9048,6 +12083,11 @@
       <c r="B259" t="n">
         <v>6</v>
       </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9058,6 +12098,11 @@
       <c r="B260" t="n">
         <v>6</v>
       </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9068,6 +12113,11 @@
       <c r="B261" t="n">
         <v>11</v>
       </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9078,6 +12128,11 @@
       <c r="B262" t="n">
         <v>6</v>
       </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9088,6 +12143,11 @@
       <c r="B263" t="n">
         <v>5</v>
       </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9098,6 +12158,11 @@
       <c r="B264" t="n">
         <v>15</v>
       </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9108,6 +12173,11 @@
       <c r="B265" t="n">
         <v>15</v>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9118,6 +12188,11 @@
       <c r="B266" t="n">
         <v>5</v>
       </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9128,6 +12203,11 @@
       <c r="B267" t="n">
         <v>5</v>
       </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9138,6 +12218,11 @@
       <c r="B268" t="n">
         <v>5</v>
       </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9148,6 +12233,11 @@
       <c r="B269" t="n">
         <v>10</v>
       </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9158,6 +12248,11 @@
       <c r="B270" t="n">
         <v>10</v>
       </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9168,6 +12263,11 @@
       <c r="B271" t="n">
         <v>10</v>
       </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9178,6 +12278,11 @@
       <c r="B272" t="n">
         <v>15</v>
       </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9188,6 +12293,11 @@
       <c r="B273" t="n">
         <v>5</v>
       </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9198,6 +12308,11 @@
       <c r="B274" t="n">
         <v>5</v>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9208,6 +12323,11 @@
       <c r="B275" t="n">
         <v>5</v>
       </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9218,6 +12338,11 @@
       <c r="B276" t="n">
         <v>5</v>
       </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9228,6 +12353,11 @@
       <c r="B277" t="n">
         <v>5</v>
       </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9238,6 +12368,11 @@
       <c r="B278" t="n">
         <v>5</v>
       </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9248,6 +12383,11 @@
       <c r="B279" t="n">
         <v>5</v>
       </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9258,6 +12398,11 @@
       <c r="B280" t="n">
         <v>5</v>
       </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9268,6 +12413,11 @@
       <c r="B281" t="n">
         <v>5</v>
       </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9278,6 +12428,11 @@
       <c r="B282" t="n">
         <v>5</v>
       </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9288,6 +12443,11 @@
       <c r="B283" t="n">
         <v>5</v>
       </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9298,6 +12458,11 @@
       <c r="B284" t="n">
         <v>5</v>
       </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9308,6 +12473,11 @@
       <c r="B285" t="n">
         <v>5</v>
       </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9318,6 +12488,11 @@
       <c r="B286" t="n">
         <v>5</v>
       </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9328,6 +12503,11 @@
       <c r="B287" t="n">
         <v>5</v>
       </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9338,6 +12518,11 @@
       <c r="B288" t="n">
         <v>5</v>
       </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9348,6 +12533,11 @@
       <c r="B289" t="n">
         <v>5</v>
       </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9358,6 +12548,11 @@
       <c r="B290" t="n">
         <v>5</v>
       </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9368,6 +12563,11 @@
       <c r="B291" t="n">
         <v>5</v>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9378,6 +12578,11 @@
       <c r="B292" t="n">
         <v>5</v>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9388,6 +12593,11 @@
       <c r="B293" t="n">
         <v>5</v>
       </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9398,6 +12608,11 @@
       <c r="B294" t="n">
         <v>5</v>
       </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9408,6 +12623,11 @@
       <c r="B295" t="n">
         <v>5</v>
       </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9418,6 +12638,11 @@
       <c r="B296" t="n">
         <v>5</v>
       </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9428,6 +12653,11 @@
       <c r="B297" t="n">
         <v>5</v>
       </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9438,6 +12668,11 @@
       <c r="B298" t="n">
         <v>5</v>
       </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9448,6 +12683,11 @@
       <c r="B299" t="n">
         <v>5</v>
       </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9458,6 +12698,11 @@
       <c r="B300" t="n">
         <v>5</v>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9468,6 +12713,11 @@
       <c r="B301" t="n">
         <v>10</v>
       </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9478,6 +12728,11 @@
       <c r="B302" t="n">
         <v>5</v>
       </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9488,6 +12743,11 @@
       <c r="B303" t="n">
         <v>5</v>
       </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9498,6 +12758,11 @@
       <c r="B304" t="n">
         <v>5</v>
       </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9508,6 +12773,11 @@
       <c r="B305" t="n">
         <v>5</v>
       </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9518,6 +12788,11 @@
       <c r="B306" t="n">
         <v>5</v>
       </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9528,6 +12803,11 @@
       <c r="B307" t="n">
         <v>5</v>
       </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9538,6 +12818,11 @@
       <c r="B308" t="n">
         <v>5</v>
       </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9548,6 +12833,11 @@
       <c r="B309" t="n">
         <v>5</v>
       </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9558,6 +12848,11 @@
       <c r="B310" t="n">
         <v>5</v>
       </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9568,6 +12863,11 @@
       <c r="B311" t="n">
         <v>5</v>
       </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9578,6 +12878,11 @@
       <c r="B312" t="n">
         <v>5</v>
       </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9588,6 +12893,11 @@
       <c r="B313" t="n">
         <v>5</v>
       </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9598,6 +12908,11 @@
       <c r="B314" t="n">
         <v>5</v>
       </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9608,6 +12923,11 @@
       <c r="B315" t="n">
         <v>5</v>
       </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9618,6 +12938,11 @@
       <c r="B316" t="n">
         <v>5</v>
       </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9628,6 +12953,11 @@
       <c r="B317" t="n">
         <v>5</v>
       </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9638,6 +12968,11 @@
       <c r="B318" t="n">
         <v>5</v>
       </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9648,6 +12983,11 @@
       <c r="B319" t="n">
         <v>5</v>
       </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9658,6 +12998,11 @@
       <c r="B320" t="n">
         <v>5</v>
       </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9668,6 +13013,11 @@
       <c r="B321" t="n">
         <v>5</v>
       </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9678,6 +13028,11 @@
       <c r="B322" t="n">
         <v>10</v>
       </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9688,6 +13043,11 @@
       <c r="B323" t="n">
         <v>10</v>
       </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9698,6 +13058,11 @@
       <c r="B324" t="n">
         <v>5</v>
       </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9708,6 +13073,11 @@
       <c r="B325" t="n">
         <v>10</v>
       </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9718,6 +13088,11 @@
       <c r="B326" t="n">
         <v>10</v>
       </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9728,6 +13103,11 @@
       <c r="B327" t="n">
         <v>5</v>
       </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9738,6 +13118,11 @@
       <c r="B328" t="n">
         <v>5</v>
       </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9748,6 +13133,11 @@
       <c r="B329" t="n">
         <v>5</v>
       </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9758,6 +13148,11 @@
       <c r="B330" t="n">
         <v>5</v>
       </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9768,6 +13163,11 @@
       <c r="B331" t="n">
         <v>5</v>
       </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9778,6 +13178,11 @@
       <c r="B332" t="n">
         <v>5</v>
       </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9788,6 +13193,11 @@
       <c r="B333" t="n">
         <v>5</v>
       </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9798,6 +13208,11 @@
       <c r="B334" t="n">
         <v>5</v>
       </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9808,6 +13223,11 @@
       <c r="B335" t="n">
         <v>5</v>
       </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9818,6 +13238,11 @@
       <c r="B336" t="n">
         <v>5</v>
       </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9828,6 +13253,11 @@
       <c r="B337" t="n">
         <v>5</v>
       </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9838,6 +13268,11 @@
       <c r="B338" t="n">
         <v>5</v>
       </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9848,6 +13283,11 @@
       <c r="B339" t="n">
         <v>5</v>
       </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9858,6 +13298,11 @@
       <c r="B340" t="n">
         <v>5</v>
       </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9868,6 +13313,11 @@
       <c r="B341" t="n">
         <v>5</v>
       </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9878,6 +13328,11 @@
       <c r="B342" t="n">
         <v>5</v>
       </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9888,6 +13343,11 @@
       <c r="B343" t="n">
         <v>5</v>
       </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9898,6 +13358,11 @@
       <c r="B344" t="n">
         <v>5</v>
       </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9908,6 +13373,11 @@
       <c r="B345" t="n">
         <v>5</v>
       </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9918,6 +13388,11 @@
       <c r="B346" t="n">
         <v>5</v>
       </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9928,6 +13403,11 @@
       <c r="B347" t="n">
         <v>5</v>
       </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9938,6 +13418,11 @@
       <c r="B348" t="n">
         <v>9</v>
       </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9948,6 +13433,11 @@
       <c r="B349" t="n">
         <v>5</v>
       </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9958,6 +13448,11 @@
       <c r="B350" t="n">
         <v>5</v>
       </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9968,6 +13463,11 @@
       <c r="B351" t="n">
         <v>5</v>
       </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9978,6 +13478,11 @@
       <c r="B352" t="n">
         <v>5</v>
       </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9988,6 +13493,11 @@
       <c r="B353" t="n">
         <v>5</v>
       </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9998,6 +13508,11 @@
       <c r="B354" t="n">
         <v>5</v>
       </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10008,6 +13523,11 @@
       <c r="B355" t="n">
         <v>5</v>
       </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10018,6 +13538,11 @@
       <c r="B356" t="n">
         <v>5</v>
       </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10028,6 +13553,11 @@
       <c r="B357" t="n">
         <v>5</v>
       </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10038,6 +13568,11 @@
       <c r="B358" t="n">
         <v>5</v>
       </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10048,6 +13583,11 @@
       <c r="B359" t="n">
         <v>5</v>
       </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10058,6 +13598,11 @@
       <c r="B360" t="n">
         <v>5</v>
       </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10068,6 +13613,11 @@
       <c r="B361" t="n">
         <v>5</v>
       </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10078,6 +13628,11 @@
       <c r="B362" t="n">
         <v>5</v>
       </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10088,6 +13643,11 @@
       <c r="B363" t="n">
         <v>5</v>
       </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10098,6 +13658,11 @@
       <c r="B364" t="n">
         <v>5</v>
       </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10108,6 +13673,11 @@
       <c r="B365" t="n">
         <v>5</v>
       </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10118,6 +13688,11 @@
       <c r="B366" t="n">
         <v>5</v>
       </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10128,6 +13703,11 @@
       <c r="B367" t="n">
         <v>5</v>
       </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10138,6 +13718,11 @@
       <c r="B368" t="n">
         <v>5</v>
       </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10148,6 +13733,11 @@
       <c r="B369" t="n">
         <v>5</v>
       </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10158,6 +13748,11 @@
       <c r="B370" t="n">
         <v>5</v>
       </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10168,6 +13763,11 @@
       <c r="B371" t="n">
         <v>5</v>
       </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10178,6 +13778,11 @@
       <c r="B372" t="n">
         <v>5</v>
       </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10188,6 +13793,11 @@
       <c r="B373" t="n">
         <v>5</v>
       </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10198,6 +13808,11 @@
       <c r="B374" t="n">
         <v>10</v>
       </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10208,6 +13823,11 @@
       <c r="B375" t="n">
         <v>5</v>
       </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10218,6 +13838,11 @@
       <c r="B376" t="n">
         <v>5</v>
       </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10228,6 +13853,11 @@
       <c r="B377" t="n">
         <v>5</v>
       </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10238,6 +13868,11 @@
       <c r="B378" t="n">
         <v>5</v>
       </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10248,6 +13883,11 @@
       <c r="B379" t="n">
         <v>5</v>
       </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10258,6 +13898,11 @@
       <c r="B380" t="n">
         <v>9</v>
       </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10268,6 +13913,11 @@
       <c r="B381" t="n">
         <v>5</v>
       </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10278,6 +13928,11 @@
       <c r="B382" t="n">
         <v>4</v>
       </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10288,6 +13943,11 @@
       <c r="B383" t="n">
         <v>4</v>
       </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10298,6 +13958,11 @@
       <c r="B384" t="n">
         <v>7</v>
       </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10308,6 +13973,11 @@
       <c r="B385" t="n">
         <v>4</v>
       </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10318,6 +13988,11 @@
       <c r="B386" t="n">
         <v>4</v>
       </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10328,6 +14003,11 @@
       <c r="B387" t="n">
         <v>4</v>
       </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10337,6 +14017,11 @@
       </c>
       <c r="B388" t="n">
         <v>4</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>финансы</t>
+        </is>
       </c>
     </row>
   </sheetData>
